--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1065.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1065.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.846664551406597</v>
+        <v>1.192232966423035</v>
       </c>
       <c r="B1">
-        <v>3.589043808019555</v>
+        <v>2.584609508514404</v>
       </c>
       <c r="C1">
-        <v>2.009709690873191</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.472096745596472</v>
+        <v>2.196079730987549</v>
       </c>
       <c r="E1">
-        <v>1.282576475179455</v>
+        <v>1.179997563362122</v>
       </c>
     </row>
   </sheetData>
